--- a/data/trans_orig/P16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D0CF0E-E7FA-4931-A758-DB2AD995EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0BA436-A4B4-4978-8D39-ED1E61CC0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79235C23-06AC-4039-8354-2269E39588CF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C4A4A7-985D-432D-88EA-B8FB5276BFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="245">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -103,13 +103,13 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>45,66%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>62,59%</t>
+    <t>69,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -121,13 +121,13 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>54,34%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>37,41%</t>
+    <t>30,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -136,7 +136,7 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>55,85%</t>
+    <t>55,48%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -145,13 +145,13 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>80,9%</t>
+    <t>83,81%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>44,15%</t>
+    <t>44,52%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -160,7 +160,7 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>19,1%</t>
+    <t>16,19%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -169,37 +169,37 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>42,68%</t>
+    <t>49,71%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>76,62%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>77,95%</t>
+    <t>79,32%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>23,38%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>22,05%</t>
+    <t>20,68%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -208,25 +208,25 @@
     <t>75,57%</t>
   </si>
   <si>
-    <t>31,36%</t>
+    <t>35,8%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>74,7%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>68,64%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>25,3%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -235,538 +235,544 @@
     <t>94,43%</t>
   </si>
   <si>
-    <t>80,81%</t>
+    <t>82,5%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>19,19%</t>
+    <t>17,5%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2012 (Tasa respuesta: 4,04%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,15%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,19%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>6,81%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0305CAE9-E16E-4DD7-B3FB-BCAE4E0CA53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62317D50-FCEF-4578-B701-E9B710B9CAFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2262,7 +2268,7 @@
         <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2283,13 @@
         <v>6123</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2292,13 +2298,13 @@
         <v>6958</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2307,13 +2313,13 @@
         <v>13081</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2375,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340DB1CF-CE51-4841-B3F2-FD63CA2088A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E2CF41-236A-4A16-BD42-32A24EF69E4C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2408,7 +2414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,7 +2524,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -2530,10 +2536,10 @@
         <v>4899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2545,10 +2551,10 @@
         <v>5716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2572,7 +2578,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2581,13 +2587,13 @@
         <v>963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2596,13 +2602,13 @@
         <v>963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,7 +2676,7 @@
         <v>3065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -2685,10 +2691,10 @@
         <v>4082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2700,13 +2706,13 @@
         <v>7146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,7 +2727,7 @@
         <v>1779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -2736,13 +2742,13 @@
         <v>1634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2751,13 +2757,13 @@
         <v>3414</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2834,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -2843,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -2858,7 +2864,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -2882,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2897,7 +2903,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2912,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,7 +2989,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -3013,7 +3019,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>17</v>
@@ -3037,7 +3043,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3052,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3067,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3144,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -3150,10 +3156,10 @@
         <v>32158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3165,10 +3171,10 @@
         <v>41842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3192,7 +3198,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3201,13 +3207,13 @@
         <v>1055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3216,13 +3222,13 @@
         <v>1055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
@@ -3305,10 +3311,10 @@
         <v>111232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3320,10 +3326,10 @@
         <v>133950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3347,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3356,13 +3362,13 @@
         <v>1005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3371,13 +3377,13 @@
         <v>1005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,10 +3451,10 @@
         <v>66377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3460,13 +3466,13 @@
         <v>217221</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -3475,13 +3481,13 @@
         <v>283597</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3502,13 @@
         <v>1779</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3511,13 +3517,13 @@
         <v>4657</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3526,13 +3532,13 @@
         <v>6437</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3594,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC95D0F-CF6D-4A92-B5FD-751BCFCC336A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D099C7-76BC-4B61-B2E1-10516FA2FD38}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3747,10 +3753,10 @@
         <v>3659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3762,10 +3768,10 @@
         <v>3659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3796,13 +3802,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3811,13 +3817,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3889,7 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -3901,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>17</v>
@@ -3913,10 +3919,10 @@
         <v>7508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3934,7 +3940,7 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -3955,7 +3961,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3964,13 +3970,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +4059,10 @@
         <v>14008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4068,10 +4074,10 @@
         <v>19565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -4104,13 +4110,13 @@
         <v>942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4119,13 +4125,13 @@
         <v>942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,10 +4199,10 @@
         <v>17657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4208,13 +4214,13 @@
         <v>42359</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4223,13 +4229,13 @@
         <v>60017</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4250,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4259,13 +4265,13 @@
         <v>3063</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4274,13 +4280,13 @@
         <v>4188</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4357,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -4363,13 +4369,13 @@
         <v>62654</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4378,13 +4384,13 @@
         <v>79099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4411,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4414,13 +4420,13 @@
         <v>3377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4429,7 +4435,7 @@
         <v>3377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>213</v>
@@ -4503,7 +4509,7 @@
         <v>42376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>215</v>
@@ -4554,7 +4560,7 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
@@ -4694,7 +4700,7 @@
         <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4715,13 @@
         <v>3950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4724,13 +4730,13 @@
         <v>10569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4739,13 +4745,13 @@
         <v>14520</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF0BA436-A4B4-4978-8D39-ED1E61CC0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A12687-F70F-4C40-89F3-F060CF17387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3C4A4A7-985D-432D-88EA-B8FB5276BFF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E246F40A-EFAD-43E8-AC72-B72D91C33C99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="247">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -79,16 +79,22 @@
     <t>61,34%</t>
   </si>
   <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>81,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -103,13 +109,13 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>45,66%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>69,68%</t>
+    <t>63,22%</t>
   </si>
   <si>
     <t>0%</t>
@@ -121,13 +127,13 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>54,34%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>30,32%</t>
+    <t>36,78%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -136,7 +142,7 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>55,48%</t>
+    <t>55,07%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -145,13 +151,13 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>83,81%</t>
+    <t>84,28%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>44,52%</t>
+    <t>44,93%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -160,7 +166,7 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>16,19%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -169,37 +175,37 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>49,71%</t>
+    <t>49,27%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>71,67%</t>
+    <t>80,7%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>79,32%</t>
+    <t>78,78%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>50,29%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>28,33%</t>
+    <t>19,3%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -208,25 +214,25 @@
     <t>75,57%</t>
   </si>
   <si>
-    <t>35,8%</t>
+    <t>34,26%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>78,25%</t>
+    <t>78,94%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>64,2%</t>
+    <t>65,74%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>21,75%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -235,13 +241,13 @@
     <t>94,43%</t>
   </si>
   <si>
-    <t>82,5%</t>
+    <t>82,21%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>85,11%</t>
   </si>
   <si>
     <t>98,63%</t>
@@ -253,13 +259,13 @@
     <t>88,98%</t>
   </si>
   <si>
-    <t>98,18%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>17,5%</t>
+    <t>17,79%</t>
   </si>
   <si>
     <t>4,8%</t>
@@ -268,13 +274,13 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>14,89%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>11,02%</t>
@@ -283,49 +289,55 @@
     <t>90,57%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,18%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>10,82%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -340,13 +352,13 @@
     <t>83,57%</t>
   </si>
   <si>
-    <t>33,58%</t>
+    <t>34,03%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>42,89%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -355,13 +367,13 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>66,42%</t>
+    <t>65,97%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>58,41%</t>
+    <t>57,11%</t>
   </si>
   <si>
     <t>63,27%</t>
@@ -370,16 +382,16 @@
     <t>71,41%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>67,67%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>36,73%</t>
@@ -388,16 +400,16 @@
     <t>28,59%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>32,33%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -430,13 +442,13 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>83,84%</t>
+    <t>82,73%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>86,76%</t>
+    <t>87,67%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -445,13 +457,13 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>16,16%</t>
+    <t>17,27%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>13,24%</t>
+    <t>12,33%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -460,13 +472,13 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>95,72%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -475,25 +487,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,28%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>90,81%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,65%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -502,16 +514,13 @@
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>99,3%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -520,31 +529,28 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>Porcentaje de pastillas para dormir recetados en 2015 (Tasa respuesta: 4,87%)</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>12,27%</t>
+    <t>25,36%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>87,73%</t>
+    <t>74,64%</t>
   </si>
   <si>
     <t>48,9%</t>
@@ -556,7 +562,7 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>42,24%</t>
+    <t>53,07%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -568,79 +574,79 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>57,76%</t>
+    <t>46,93%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>67,74%</t>
+    <t>68,15%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>76,99%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>32,26%</t>
+    <t>31,85%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>23,01%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>71,72%</t>
+    <t>69,66%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>28,28%</t>
+    <t>30,34%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -649,19 +655,19 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -670,46 +676,46 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>94,27%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,37%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>14,04%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>5,73%</t>
   </si>
   <si>
     <t>2,38%</t>
@@ -718,61 +724,61 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62317D50-FCEF-4578-B701-E9B710B9CAFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CC9F9-603A-47F5-9FB6-613CAF57FF65}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1373,10 +1379,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1388,10 +1394,10 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,13 +1425,13 @@
         <v>5036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1434,18 +1440,18 @@
         <v>5036</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1460,10 +1466,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1472,10 +1478,10 @@
         <v>6486</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -1487,10 +1493,10 @@
         <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -1508,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1523,13 +1529,13 @@
         <v>867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1538,13 +1544,13 @@
         <v>867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,13 +1565,13 @@
         <v>5099</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1574,13 +1580,13 @@
         <v>7353</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1589,18 +1595,18 @@
         <v>12452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1612,10 +1618,10 @@
         <v>7891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -1630,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -1642,10 +1648,10 @@
         <v>23691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -1663,13 +1669,13 @@
         <v>895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1678,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1693,13 +1699,13 @@
         <v>895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,13 +1720,13 @@
         <v>8786</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1729,13 +1735,13 @@
         <v>15800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1744,18 +1750,18 @@
         <v>24586</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1767,10 +1773,10 @@
         <v>8384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -1782,10 +1788,10 @@
         <v>19934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -1797,10 +1803,10 @@
         <v>28317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1818,13 +1824,13 @@
         <v>1049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1833,13 +1839,13 @@
         <v>994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1848,13 +1854,13 @@
         <v>2044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1875,13 @@
         <v>9433</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -1884,13 +1890,13 @@
         <v>20928</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -1899,18 +1905,18 @@
         <v>30361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1922,10 +1928,10 @@
         <v>7453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -1940,10 +1946,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1952,10 +1958,10 @@
         <v>33410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1973,13 +1979,13 @@
         <v>2410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1988,13 +1994,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2003,13 +2009,13 @@
         <v>2409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,13 +2030,13 @@
         <v>9863</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2039,13 +2045,13 @@
         <v>25956</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -2054,18 +2060,18 @@
         <v>35819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2077,10 +2083,10 @@
         <v>29973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -2092,13 +2098,13 @@
         <v>62450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2107,13 +2113,13 @@
         <v>92423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2134,13 @@
         <v>1769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2143,13 +2149,13 @@
         <v>3150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2158,13 +2164,13 @@
         <v>4919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2185,13 @@
         <v>31742</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -2194,13 +2200,13 @@
         <v>65600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -2209,13 +2215,13 @@
         <v>97342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2238,13 @@
         <v>58801</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -2247,13 +2253,13 @@
         <v>133714</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -2262,13 +2268,13 @@
         <v>192515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2289,13 @@
         <v>6123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2298,13 +2304,13 @@
         <v>6958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2313,13 +2319,13 @@
         <v>13081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2340,13 @@
         <v>64924</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>136</v>
@@ -2349,13 +2355,13 @@
         <v>140672</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -2364,18 +2370,18 @@
         <v>205596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E2CF41-236A-4A16-BD42-32A24EF69E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5653CF3-7668-4D4F-9CAC-C56EDC19336E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2524,10 +2530,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2536,10 +2542,10 @@
         <v>4899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2551,10 +2557,10 @@
         <v>5716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2572,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2587,13 +2593,13 @@
         <v>963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2602,13 +2608,13 @@
         <v>963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2629,13 @@
         <v>818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -2638,13 +2644,13 @@
         <v>5862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -2653,18 +2659,18 @@
         <v>6679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2676,10 +2682,10 @@
         <v>3065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2691,10 +2697,10 @@
         <v>4082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2706,13 +2712,13 @@
         <v>7146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,10 +2733,10 @@
         <v>1779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -2742,13 +2748,13 @@
         <v>1634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2757,13 +2763,13 @@
         <v>3414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2784,13 @@
         <v>4844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2793,13 +2799,13 @@
         <v>5716</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2808,18 +2814,18 @@
         <v>10560</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2834,10 +2840,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2849,10 +2855,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -2864,10 +2870,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2897,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2912,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2939,13 @@
         <v>15454</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -2948,13 +2954,13 @@
         <v>31248</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -2963,18 +2969,18 @@
         <v>46703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2989,10 +2995,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3004,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3019,10 +3025,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3052,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3067,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3094,13 @@
         <v>14636</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -3103,13 +3109,13 @@
         <v>33603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>41</v>
@@ -3118,18 +3124,18 @@
         <v>48240</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3144,10 +3150,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3156,10 +3162,10 @@
         <v>32158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3171,10 +3177,10 @@
         <v>41842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3192,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3207,13 +3213,13 @@
         <v>1055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3222,13 +3228,13 @@
         <v>1055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3249,13 @@
         <v>9684</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -3258,13 +3264,13 @@
         <v>33213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3273,18 +3279,18 @@
         <v>42897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3299,10 +3305,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3311,10 +3317,10 @@
         <v>111232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3326,10 +3332,10 @@
         <v>133950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3347,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3362,13 +3368,13 @@
         <v>1005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3377,13 +3383,13 @@
         <v>1005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3404,13 @@
         <v>22718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -3413,13 +3419,13 @@
         <v>112237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -3428,13 +3434,13 @@
         <v>134955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,10 +3457,10 @@
         <v>66377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3466,13 +3472,13 @@
         <v>217221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -3481,13 +3487,13 @@
         <v>283597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3508,13 @@
         <v>1779</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3517,13 +3523,13 @@
         <v>4657</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3532,13 +3538,13 @@
         <v>6437</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3559,13 @@
         <v>68156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>204</v>
@@ -3568,13 +3574,13 @@
         <v>221878</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>263</v>
@@ -3583,18 +3589,18 @@
         <v>290034</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D099C7-76BC-4B61-B2E1-10516FA2FD38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70BA10C-6407-4685-B9D2-68642A14DB82}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3633,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,10 +3759,10 @@
         <v>3659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3768,10 +3774,10 @@
         <v>3659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3802,13 +3808,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3817,13 +3823,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3857,13 @@
         <v>4600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3866,18 +3872,18 @@
         <v>4600</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3889,10 +3895,10 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3907,10 +3913,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3919,10 +3925,10 @@
         <v>7508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3940,10 +3946,10 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -3955,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3970,13 +3976,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3997,13 @@
         <v>1989</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4006,13 +4012,13 @@
         <v>6535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4021,18 +4027,18 @@
         <v>8524</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4047,10 +4053,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4059,10 +4065,10 @@
         <v>14008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4074,10 +4080,10 @@
         <v>19565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -4095,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4110,13 +4116,13 @@
         <v>942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4125,13 +4131,13 @@
         <v>942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4152,13 @@
         <v>5558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4161,13 +4167,13 @@
         <v>14950</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -4176,18 +4182,18 @@
         <v>20507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4199,10 +4205,10 @@
         <v>17657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4214,13 +4220,13 @@
         <v>42359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4229,13 +4235,13 @@
         <v>60017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4256,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4265,13 +4271,13 @@
         <v>3063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4280,13 +4286,13 @@
         <v>4188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4307,13 @@
         <v>18782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -4316,13 +4322,13 @@
         <v>45422</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -4331,18 +4337,18 @@
         <v>64205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4357,10 +4363,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4369,13 +4375,13 @@
         <v>62654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4384,13 +4390,13 @@
         <v>79099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4420,13 +4426,13 @@
         <v>3377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4435,13 +4441,13 @@
         <v>3377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4462,13 @@
         <v>16446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -4471,13 +4477,13 @@
         <v>66031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -4486,18 +4492,18 @@
         <v>82476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4509,10 +4515,10 @@
         <v>42376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -4524,10 +4530,10 @@
         <v>124090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -4539,13 +4545,13 @@
         <v>166466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4566,13 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4575,13 +4581,13 @@
         <v>2247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4590,13 +4596,13 @@
         <v>4056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4617,13 @@
         <v>44185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -4626,13 +4632,13 @@
         <v>126337</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>155</v>
@@ -4641,13 +4647,13 @@
         <v>170522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4670,13 @@
         <v>83010</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -4679,13 +4685,13 @@
         <v>253306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>306</v>
@@ -4694,13 +4700,13 @@
         <v>336315</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4721,13 @@
         <v>3950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4730,13 +4736,13 @@
         <v>10569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4745,13 +4751,13 @@
         <v>14520</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4772,13 @@
         <v>86960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4781,13 +4787,13 @@
         <v>263875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>320</v>
@@ -4796,18 +4802,18 @@
         <v>350835</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A12687-F70F-4C40-89F3-F060CF17387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE91985-7BD7-4B0B-8404-3EC3ADFD3D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E246F40A-EFAD-43E8-AC72-B72D91C33C99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{721DE844-9268-46A7-9DD4-7AB028F1EDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="243">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -79,7 +79,7 @@
     <t>61,34%</t>
   </si>
   <si>
-    <t>18,55%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,12 +91,6 @@
     <t>38,66%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
@@ -109,13 +103,13 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>45,53%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>63,22%</t>
+    <t>62,59%</t>
   </si>
   <si>
     <t>0%</t>
@@ -127,13 +121,13 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>54,47%</t>
+    <t>54,65%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>36,78%</t>
+    <t>37,41%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -142,7 +136,7 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>55,07%</t>
+    <t>55,85%</t>
   </si>
   <si>
     <t>88,17%</t>
@@ -151,13 +145,13 @@
     <t>96,36%</t>
   </si>
   <si>
-    <t>84,28%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>44,93%</t>
+    <t>44,15%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -166,7 +160,7 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>15,72%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -175,37 +169,37 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>49,27%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>80,7%</t>
+    <t>76,62%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>77,95%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>19,3%</t>
+    <t>23,38%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>21,22%</t>
+    <t>22,05%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -214,25 +208,25 @@
     <t>75,57%</t>
   </si>
   <si>
-    <t>34,26%</t>
+    <t>31,36%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>78,94%</t>
+    <t>74,7%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>65,74%</t>
+    <t>68,64%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>21,06%</t>
+    <t>25,3%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -241,103 +235,103 @@
     <t>94,43%</t>
   </si>
   <si>
-    <t>82,21%</t>
+    <t>80,81%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>17,79%</t>
+    <t>19,19%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>95,05%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -352,13 +346,13 @@
     <t>83,57%</t>
   </si>
   <si>
-    <t>34,03%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>42,89%</t>
+    <t>41,77%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -367,13 +361,13 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>65,97%</t>
+    <t>66,07%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>57,11%</t>
+    <t>58,23%</t>
   </si>
   <si>
     <t>63,27%</t>
@@ -388,10 +382,10 @@
     <t>67,67%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>36,73%</t>
@@ -406,10 +400,10 @@
     <t>32,33%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -442,13 +436,13 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>82,73%</t>
+    <t>83,67%</t>
   </si>
   <si>
     <t>97,54%</t>
   </si>
   <si>
-    <t>87,67%</t>
+    <t>86,88%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -457,13 +451,13 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>17,27%</t>
+    <t>16,33%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>13,12%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -472,13 +466,13 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>96,3%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>95,92%</t>
+    <t>96,22%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -487,25 +481,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>90,81%</t>
+    <t>91,44%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>94,77%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -514,13 +508,16 @@
     <t>97,78%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>9,19%</t>
+    <t>8,56%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -529,13 +526,16 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2016 (Tasa respuesta: 4,87%)</t>
@@ -544,13 +544,13 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>17,25%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>82,75%</t>
   </si>
   <si>
     <t>48,9%</t>
@@ -562,7 +562,7 @@
     <t>88,08%</t>
   </si>
   <si>
-    <t>53,07%</t>
+    <t>53,02%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -574,79 +574,79 @@
     <t>11,92%</t>
   </si>
   <si>
-    <t>46,93%</t>
+    <t>46,98%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>68,15%</t>
+    <t>68,3%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>75,82%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>31,85%</t>
+    <t>31,7%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>22,47%</t>
+    <t>24,18%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>69,66%</t>
+    <t>74,1%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>30,34%</t>
+    <t>25,9%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -655,19 +655,16 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -676,109 +673,100 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>94,27%</t>
+    <t>93,88%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>5,73%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>93,19%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>6,81%</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CC9F9-603A-47F5-9FB6-613CAF57FF65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A536A-FB44-452B-BC00-5833E45B2127}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1379,10 +1367,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -1394,10 +1382,10 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,13 +1413,13 @@
         <v>5036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1440,18 +1428,18 @@
         <v>5036</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1466,10 +1454,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1478,10 +1466,10 @@
         <v>6486</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -1493,10 +1481,10 @@
         <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -1514,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1529,13 +1517,13 @@
         <v>867</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1544,13 +1532,13 @@
         <v>867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,13 +1553,13 @@
         <v>5099</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -1580,13 +1568,13 @@
         <v>7353</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -1595,18 +1583,18 @@
         <v>12452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1618,10 +1606,10 @@
         <v>7891</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -1636,10 +1624,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -1648,10 +1636,10 @@
         <v>23691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -1669,13 +1657,13 @@
         <v>895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1684,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1699,13 +1687,13 @@
         <v>895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1708,13 @@
         <v>8786</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1735,13 +1723,13 @@
         <v>15800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1750,18 +1738,18 @@
         <v>24586</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1773,10 +1761,10 @@
         <v>8384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -1788,10 +1776,10 @@
         <v>19934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -1803,10 +1791,10 @@
         <v>28317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1824,13 +1812,13 @@
         <v>1049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1839,13 +1827,13 @@
         <v>994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1854,13 +1842,13 @@
         <v>2044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1863,13 @@
         <v>9433</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -1890,13 +1878,13 @@
         <v>20928</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -1905,18 +1893,18 @@
         <v>30361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1928,10 +1916,10 @@
         <v>7453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -1946,10 +1934,10 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1958,10 +1946,10 @@
         <v>33410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1979,13 +1967,13 @@
         <v>2410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1994,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2009,13 +1997,13 @@
         <v>2409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,13 +2018,13 @@
         <v>9863</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2045,13 +2033,13 @@
         <v>25956</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -2060,18 +2048,18 @@
         <v>35819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2083,10 +2071,10 @@
         <v>29973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -2098,13 +2086,13 @@
         <v>62450</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -2113,13 +2101,13 @@
         <v>92423</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2122,13 @@
         <v>1769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2149,13 +2137,13 @@
         <v>3150</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2164,13 +2152,13 @@
         <v>4919</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2173,13 @@
         <v>31742</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -2200,13 +2188,13 @@
         <v>65600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -2215,13 +2203,13 @@
         <v>97342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2226,13 @@
         <v>58801</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -2253,13 +2241,13 @@
         <v>133714</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -2268,13 +2256,13 @@
         <v>192515</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2277,13 @@
         <v>6123</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -2304,13 +2292,13 @@
         <v>6958</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2319,13 +2307,13 @@
         <v>13081</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2328,13 @@
         <v>64924</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>136</v>
@@ -2355,13 +2343,13 @@
         <v>140672</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>203</v>
@@ -2370,18 +2358,18 @@
         <v>205596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5653CF3-7668-4D4F-9CAC-C56EDC19336E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A285721D-97EB-4DAB-98D0-744C56270127}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2530,10 +2518,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2542,10 +2530,10 @@
         <v>4899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2557,10 +2545,10 @@
         <v>5716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2578,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2593,13 +2581,13 @@
         <v>963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2608,13 +2596,13 @@
         <v>963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2617,13 @@
         <v>818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -2644,13 +2632,13 @@
         <v>5862</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -2659,18 +2647,18 @@
         <v>6679</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2682,10 +2670,10 @@
         <v>3065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2697,10 +2685,10 @@
         <v>4082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2712,13 +2700,13 @@
         <v>7146</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,10 +2721,10 @@
         <v>1779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -2748,13 +2736,13 @@
         <v>1634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2763,13 +2751,13 @@
         <v>3414</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2772,13 @@
         <v>4844</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2799,13 +2787,13 @@
         <v>5716</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2814,18 +2802,18 @@
         <v>10560</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2840,10 +2828,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -2855,10 +2843,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -2870,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2903,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2918,13 +2906,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2927,13 @@
         <v>15454</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -2954,13 +2942,13 @@
         <v>31248</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>43</v>
@@ -2969,18 +2957,18 @@
         <v>46703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2995,10 +2983,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3010,10 +2998,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3025,10 +3013,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3058,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3073,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3082,13 @@
         <v>14636</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -3109,13 +3097,13 @@
         <v>33603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>41</v>
@@ -3124,18 +3112,18 @@
         <v>48240</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3150,10 +3138,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3162,10 +3150,10 @@
         <v>32158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3177,10 +3165,10 @@
         <v>41842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3198,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3213,13 +3201,13 @@
         <v>1055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3228,13 +3216,13 @@
         <v>1055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3237,13 @@
         <v>9684</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -3264,13 +3252,13 @@
         <v>33213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3279,18 +3267,18 @@
         <v>42897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3305,10 +3293,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7">
         <v>102</v>
@@ -3317,10 +3305,10 @@
         <v>111232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3332,10 +3320,10 @@
         <v>133950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3353,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3368,13 +3356,13 @@
         <v>1005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3383,13 +3371,13 @@
         <v>1005</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3392,13 @@
         <v>22718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -3419,13 +3407,13 @@
         <v>112237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -3434,13 +3422,13 @@
         <v>134955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,10 +3445,10 @@
         <v>66377</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3472,13 +3460,13 @@
         <v>217221</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>257</v>
@@ -3487,13 +3475,13 @@
         <v>283597</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3496,13 @@
         <v>1779</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3523,13 +3511,13 @@
         <v>4657</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -3538,13 +3526,13 @@
         <v>6437</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3547,13 @@
         <v>68156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>204</v>
@@ -3574,13 +3562,13 @@
         <v>221878</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>263</v>
@@ -3589,18 +3577,18 @@
         <v>290034</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70BA10C-6407-4685-B9D2-68642A14DB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B8FD8-3F87-4BC3-9C54-3868F42CC27B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,7 +3799,7 @@
         <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>170</v>
@@ -3826,7 +3814,7 @@
         <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>170</v>
@@ -3857,13 +3845,13 @@
         <v>4600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -3872,18 +3860,18 @@
         <v>4600</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3898,7 +3886,7 @@
         <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3916,7 +3904,7 @@
         <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3949,7 +3937,7 @@
         <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -3961,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>176</v>
@@ -3979,7 +3967,7 @@
         <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>178</v>
@@ -3997,13 +3985,13 @@
         <v>1989</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4012,13 +4000,13 @@
         <v>6535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -4027,18 +4015,18 @@
         <v>8524</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4053,10 +4041,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4101,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4119,7 +4107,7 @@
         <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>184</v>
@@ -4134,7 +4122,7 @@
         <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>186</v>
@@ -4152,13 +4140,13 @@
         <v>5558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4167,13 +4155,13 @@
         <v>14950</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -4182,18 +4170,18 @@
         <v>20507</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4259,7 +4247,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>196</v>
@@ -4307,13 +4295,13 @@
         <v>18782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -4322,13 +4310,13 @@
         <v>45422</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -4337,18 +4325,18 @@
         <v>64205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4366,7 +4354,7 @@
         <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4390,13 +4378,13 @@
         <v>79099</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4426,13 +4414,13 @@
         <v>3377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4441,13 +4429,13 @@
         <v>3377</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4450,13 @@
         <v>16446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -4477,13 +4465,13 @@
         <v>66031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -4492,18 +4480,18 @@
         <v>82476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4515,10 +4503,10 @@
         <v>42376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -4530,10 +4518,10 @@
         <v>124090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -4545,13 +4533,13 @@
         <v>166466</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4554,13 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4581,13 +4569,13 @@
         <v>2247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -4596,13 +4584,13 @@
         <v>4056</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4605,13 @@
         <v>44185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -4632,13 +4620,13 @@
         <v>126337</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="7">
         <v>155</v>
@@ -4647,13 +4635,13 @@
         <v>170522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4658,13 @@
         <v>83010</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
@@ -4685,13 +4673,13 @@
         <v>253306</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>306</v>
@@ -4700,13 +4688,13 @@
         <v>336315</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4709,13 @@
         <v>3950</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4736,13 +4724,13 @@
         <v>10569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4751,13 +4739,13 @@
         <v>14520</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4760,13 @@
         <v>86960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
         <v>237</v>
@@ -4787,13 +4775,13 @@
         <v>263875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>320</v>
@@ -4802,18 +4790,18 @@
         <v>350835</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B06-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE91985-7BD7-4B0B-8404-3EC3ADFD3D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09DA04DF-0256-4F27-8999-435C0D0CCE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{721DE844-9268-46A7-9DD4-7AB028F1EDD8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{949419A8-1601-452C-BCB6-886AA1976D21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="268">
   <si>
     <t>Porcentaje de pastillas para dormir recetados en 2007 (Tasa respuesta: 3,12%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -94,7 +94,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -130,7 +130,7 @@
     <t>37,41%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>89,82%</t>
@@ -163,7 +163,7 @@
     <t>19,1%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>88,87%</t>
@@ -202,7 +202,7 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>75,57%</t>
@@ -229,55 +229,88 @@
     <t>25,3%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>90,57%</t>
@@ -460,34 +493,40 @@
     <t>13,12%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>97,39%</t>
@@ -685,85 +724,121 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -1178,8 +1253,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A536A-FB44-452B-BC00-5833E45B2127}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E667C53-81A5-4DC7-ACAC-F9E209A5BC4B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2065,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>29973</v>
+        <v>14031</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>64</v>
@@ -2080,10 +2155,10 @@
         <v>14</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>62450</v>
+        <v>29271</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>66</v>
@@ -2092,22 +2167,22 @@
         <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7">
+        <v>47</v>
+      </c>
+      <c r="N19" s="7">
+        <v>43302</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="7">
-        <v>93</v>
-      </c>
-      <c r="N19" s="7">
-        <v>92423</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,49 +2191,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>950</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>1769</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>1830</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="7">
+      <c r="K20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="I20" s="7">
-        <v>3150</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="N20" s="7">
+        <v>2780</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4919</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7">
-        <v>31742</v>
+        <v>14981</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -2182,10 +2257,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>65600</v>
+        <v>31101</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>17</v>
@@ -2197,10 +2272,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="N21" s="7">
-        <v>97342</v>
+        <v>46082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>17</v>
@@ -2214,55 +2289,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>58801</v>
+        <v>15942</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7">
+        <v>29</v>
+      </c>
+      <c r="I22" s="7">
+        <v>33179</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="7">
-        <v>129</v>
-      </c>
-      <c r="I22" s="7">
-        <v>133714</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="7">
+        <v>46</v>
+      </c>
+      <c r="N22" s="7">
+        <v>49121</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="7">
-        <v>190</v>
-      </c>
-      <c r="N22" s="7">
-        <v>192515</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,49 +2346,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>6123</v>
+        <v>819</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1320</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2139</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>6958</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="7">
-        <v>13</v>
-      </c>
-      <c r="N23" s="7">
-        <v>13081</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,63 +2397,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16761</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="7">
+        <v>30</v>
+      </c>
+      <c r="I24" s="7">
+        <v>34499</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="7">
+        <v>48</v>
+      </c>
+      <c r="N24" s="7">
+        <v>51260</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7">
+        <v>58801</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
+        <v>129</v>
+      </c>
+      <c r="I25" s="7">
+        <v>133714</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="7">
+        <v>190</v>
+      </c>
+      <c r="N25" s="7">
+        <v>192515</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6123</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="7">
+        <v>7</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6958</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" s="7">
+        <v>13</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13081</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>67</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>64924</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7">
         <v>136</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>140672</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="7">
         <v>203</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>205596</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>98</v>
+      <c r="O27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2391,8 +2622,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A285721D-97EB-4DAB-98D0-744C56270127}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A163DBE-B2B5-4A7A-9161-2536EA351F21}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2408,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2518,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -2530,10 +2761,10 @@
         <v>4899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2545,10 +2776,10 @@
         <v>5716</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2572,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2581,13 +2812,13 @@
         <v>963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2596,13 +2827,13 @@
         <v>963</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,7 +2901,7 @@
         <v>3065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -2685,10 +2916,10 @@
         <v>4082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2700,13 +2931,13 @@
         <v>7146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,7 +2952,7 @@
         <v>1779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -2736,13 +2967,13 @@
         <v>1634</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2751,13 +2982,13 @@
         <v>3414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -2843,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -2858,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -2882,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2897,7 +3128,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2912,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,7 +3214,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -2998,7 +3229,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>17</v>
@@ -3013,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>17</v>
@@ -3037,7 +3268,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3052,7 +3283,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3067,7 +3298,7 @@
         <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3369,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -3150,10 +3381,10 @@
         <v>32158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3165,10 +3396,10 @@
         <v>41842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3192,7 +3423,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3201,13 +3432,13 @@
         <v>1055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3216,13 +3447,13 @@
         <v>1055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,49 +3515,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>22718</v>
+        <v>10109</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="7">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>111232</v>
+        <v>40540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M19" s="7">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>133950</v>
+        <v>50649</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,37 +3578,37 @@
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>22718</v>
+        <v>10109</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -3401,10 +3632,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="7">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7">
-        <v>112237</v>
+        <v>40540</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>17</v>
@@ -3416,10 +3647,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="N21" s="7">
-        <v>134955</v>
+        <v>50649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>17</v>
@@ -3433,55 +3664,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>66377</v>
+        <v>12609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="I22" s="7">
-        <v>217221</v>
+        <v>70692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="N22" s="7">
-        <v>283597</v>
+        <v>83301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,49 +3721,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1779</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1005</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4657</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1005</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6437</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,63 +3772,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12609</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7">
+        <v>71697</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="7">
+        <v>76</v>
+      </c>
+      <c r="N24" s="7">
+        <v>84306</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7">
+        <v>66377</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="7">
+        <v>200</v>
+      </c>
+      <c r="I25" s="7">
+        <v>217221</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="7">
+        <v>257</v>
+      </c>
+      <c r="N25" s="7">
+        <v>283597</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1779</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4657</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6437</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>59</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>68156</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7">
         <v>204</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>221878</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="7">
         <v>263</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>290034</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>98</v>
+      <c r="O27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3610,8 +3997,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2B8FD8-3F87-4BC3-9C54-3868F42CC27B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AE890D-53B7-4F14-BDBE-DC9A8856F587}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3627,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3747,10 +4134,10 @@
         <v>3659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3762,10 +4149,10 @@
         <v>3659</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3796,13 +4183,13 @@
         <v>941</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3811,13 +4198,13 @@
         <v>941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +4270,7 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -3901,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>17</v>
@@ -3913,10 +4300,10 @@
         <v>7508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -3934,7 +4321,7 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>13</v>
@@ -3955,7 +4342,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3964,13 +4351,13 @@
         <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +4440,10 @@
         <v>14008</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4068,10 +4455,10 @@
         <v>19565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -4104,13 +4491,13 @@
         <v>942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4119,13 +4506,13 @@
         <v>942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,10 +4580,10 @@
         <v>17657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -4208,13 +4595,13 @@
         <v>42359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -4223,13 +4610,13 @@
         <v>60017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4631,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -4259,13 +4646,13 @@
         <v>3063</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4274,13 +4661,13 @@
         <v>4188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
@@ -4363,13 +4750,13 @@
         <v>62654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -4378,13 +4765,13 @@
         <v>79099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4792,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -4414,13 +4801,13 @@
         <v>3377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4429,13 +4816,13 @@
         <v>3377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +4884,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>42376</v>
+        <v>21114</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7">
+        <v>61</v>
+      </c>
+      <c r="I19" s="7">
+        <v>65105</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7">
         <v>82</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>107</v>
-      </c>
-      <c r="I19" s="7">
-        <v>124090</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>151</v>
-      </c>
       <c r="N19" s="7">
-        <v>166466</v>
+        <v>86220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,43 +4941,43 @@
         <v>1809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>2247</v>
+        <v>960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>4056</v>
+        <v>2769</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,10 +4986,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D21" s="7">
-        <v>44185</v>
+        <v>22923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -4614,10 +5001,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="I21" s="7">
-        <v>126337</v>
+        <v>66065</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>17</v>
@@ -4629,10 +5016,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="7">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="N21" s="7">
-        <v>170522</v>
+        <v>88989</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>17</v>
@@ -4646,55 +5033,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>83010</v>
+        <v>21262</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>253306</v>
+        <v>58985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>336315</v>
+        <v>80247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,49 +5090,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3950</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>10569</v>
+        <v>1287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>14520</v>
+        <v>1287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,63 +5141,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21262</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="7">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>60272</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="7">
+        <v>70</v>
+      </c>
+      <c r="N24" s="7">
+        <v>81534</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7">
+        <v>83010</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="7">
+        <v>227</v>
+      </c>
+      <c r="I25" s="7">
+        <v>253306</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" s="7">
+        <v>306</v>
+      </c>
+      <c r="N25" s="7">
+        <v>336315</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3950</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10569</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>14520</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>83</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>86960</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="7">
         <v>237</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>263875</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="7">
         <v>320</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>350835</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>98</v>
+      <c r="O27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
